--- a/rfuse/Archive/gpu_개별실험_v1/merged_summary.xlsx
+++ b/rfuse/Archive/gpu_개별실험_v1/merged_summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e3bbcfeab54bef5/ドキュメント/GitHub/ldy/rfuse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e3bbcfeab54bef5/ドキュメント/GitHub/ldy/rfuse/Archive/gpu_개별실험_v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="30" documentId="11_ACEEC1BBD331C6F5C25ACB3F9E1B37BE65E39CBC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA410203-BA99-4FE8-8B9C-3743DB110070}"/>
@@ -9913,8 +9913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14845,46 +14845,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="B202:G202"/>
+    <mergeCell ref="B209:G209"/>
+    <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B224:G224"/>
+    <mergeCell ref="B231:G231"/>
+    <mergeCell ref="B238:G238"/>
+    <mergeCell ref="B245:G245"/>
     <mergeCell ref="B253:G253"/>
     <mergeCell ref="B260:G260"/>
     <mergeCell ref="B267:G267"/>
     <mergeCell ref="B274:G274"/>
     <mergeCell ref="B281:G281"/>
-    <mergeCell ref="B217:G217"/>
-    <mergeCell ref="B224:G224"/>
-    <mergeCell ref="B231:G231"/>
-    <mergeCell ref="B238:G238"/>
-    <mergeCell ref="B245:G245"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="B202:G202"/>
-    <mergeCell ref="B209:G209"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B166:G166"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
